--- a/data_cleaning/Key-Insight.xlsx
+++ b/data_cleaning/Key-Insight.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grahamke\Documents\GitHub\TIMES-NZ\TIMES_shiny\data_cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grahamke\Documents\GitHub\TIMES-NZ\data_cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,9 +50,6 @@
     <t>Industrial Emissions</t>
   </si>
   <si>
-    <t>MtCO2</t>
-  </si>
-  <si>
     <t>All Energy Related Annual Emissions</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">Renewable energy </t>
+  </si>
+  <si>
+    <t>MtCO&lt;sup&gt;2&lt;/sup&gt;</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -497,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1">
         <v>29.365900000000003</v>
@@ -529,16 +529,16 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1">
         <v>29.365900000000003</v>
@@ -570,16 +570,16 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3">
         <v>29.365900000000003</v>
@@ -620,16 +620,16 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3">
         <v>29.365900000000003</v>
@@ -670,16 +670,16 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>0.63500000000000001</v>
@@ -727,16 +727,16 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>0.63500000000000001</v>
@@ -784,16 +784,16 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1">
         <v>15.877229999999999</v>
@@ -834,16 +834,16 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1">
         <v>15.877229999999999</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -893,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5">
         <v>6.6215900000000003</v>
@@ -934,16 +934,16 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E11" s="5">
         <v>6.6215900000000003</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -1134,13 +1134,13 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -1225,13 +1225,13 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>

--- a/data_cleaning/Key-Insight.xlsx
+++ b/data_cleaning/Key-Insight.xlsx
@@ -95,7 +95,7 @@
     <t xml:space="preserve">Renewable energy </t>
   </si>
   <si>
-    <t>MtCO&lt;sup&gt;2&lt;/sup&gt;</t>
+    <t>MtCO&lt;sub&gt;2&lt;/sub&gt;</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
